--- a/HVIT/PrelimDSNE_format_10-27-22.xlsx
+++ b/HVIT/PrelimDSNE_format_10-27-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\LunarEjecta\HVIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC00E8B-F745-4E31-AFD4-037555C17626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4F6AA-A558-401D-8721-B82E46BE5133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{AD09DEF3-5EC8-4F99-B26E-F62AFFBE0AEB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="21">
   <si>
     <t>Equator 0 Degrees Latitude</t>
   </si>
@@ -111,21 +111,6 @@
   </si>
   <si>
     <t>It is suggested that a power-law fit is done between each table for a given number flux cell for intermediate values</t>
-  </si>
-  <si>
-    <t>Questions:</t>
-  </si>
-  <si>
-    <t>Do we need more speed bins?</t>
-  </si>
-  <si>
-    <t>The NESC has suggested including speeds above the lunar escape speed (~2.4 km/s), what upper limit should we choose?</t>
-  </si>
-  <si>
-    <t>What should the lower and upper limits be? -- in part should depend on ballistic limit equation needs</t>
-  </si>
-  <si>
-    <t>Should the number flux be limited by ejecta mass or ejecta size (radius)? -- we plan to have a single particle density for simplicity</t>
   </si>
   <si>
     <t>for Meteoroid Ejecta Mass &gt; 10^-6 g</t>
@@ -286,7 +271,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,12 +286,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,7 +605,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,22 +615,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
@@ -660,11 +645,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3">
         <v>170</v>
       </c>
@@ -676,16 +661,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="H4" t="s">
         <v>14</v>
       </c>
@@ -700,11 +685,11 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,9 +826,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -865,9 +848,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -889,9 +870,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -912,31 +891,27 @@
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
@@ -948,11 +923,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="3">
         <v>170</v>
       </c>
@@ -964,16 +939,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -985,11 +960,11 @@
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1177,21 +1152,21 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1203,11 +1178,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="3">
         <v>170</v>
       </c>
@@ -1219,16 +1194,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -1240,11 +1215,11 @@
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="D36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -1428,13 +1403,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:C17"/>
@@ -1446,6 +1414,13 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
